--- a/Excel/MonsterModelConfig.xlsx
+++ b/Excel/MonsterModelConfig.xlsx
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1203,10 +1203,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>

--- a/Excel/MonsterModelConfig.xlsx
+++ b/Excel/MonsterModelConfig.xlsx
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1194,19 +1194,19 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H6">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I6">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>

--- a/Excel/MonsterModelConfig.xlsx
+++ b/Excel/MonsterModelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1194,19 +1194,19 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
         <v>0.8</v>
-      </c>
-      <c r="G6">
-        <v>0.3</v>
-      </c>
-      <c r="H6">
-        <v>0.15</v>
-      </c>
-      <c r="I6">
-        <v>0.15</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>

--- a/Excel/MonsterModelConfig.xlsx
+++ b/Excel/MonsterModelConfig.xlsx
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1203,10 +1203,10 @@
         <v>1</v>
       </c>
       <c r="H6">
+        <v>0.3</v>
+      </c>
+      <c r="I6">
         <v>0.5</v>
-      </c>
-      <c r="I6">
-        <v>0.8</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>

--- a/Excel/MonsterModelConfig.xlsx
+++ b/Excel/MonsterModelConfig.xlsx
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/MonsterModelConfig.xlsx
+++ b/Excel/MonsterModelConfig.xlsx
@@ -10,12 +10,25 @@
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
     <sheet name="定制配置" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -36,6 +49,9 @@
   </si>
   <si>
     <t>RewardRate</t>
+  </si>
+  <si>
+    <t>CountRate</t>
   </si>
   <si>
     <t>SkillList</t>
@@ -74,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1029,10 +1045,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1041,17 +1057,20 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" style="2" customWidth="1"/>
-    <col min="6" max="9" width="21.125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="20.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="46" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="15.7333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.525" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.8166666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.0583333333333" style="2" customWidth="1"/>
+    <col min="9" max="10" width="10" style="2" customWidth="1"/>
+    <col min="11" max="12" width="20.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="46" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="E1" s="2"/>
@@ -1065,8 +1084,9 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:16">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="E2" s="2"/>
@@ -1080,8 +1100,9 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:16">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1111,16 +1132,19 @@
       <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:16">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1146,52 +1170,58 @@
       <c r="K4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:16">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-    </row>
-    <row r="6" ht="24" customHeight="1" spans="3:11">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="3:12">
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1208,10 +1238,13 @@
       <c r="I6">
         <v>0.5</v>
       </c>
-      <c r="J6"/>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
       <c r="K6"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:11">
+      <c r="L6"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:12">
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
@@ -1221,8 +1254,9 @@
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:11">
+      <c r="L7"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:12">
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
@@ -1232,8 +1266,9 @@
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:11">
+      <c r="L8"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:12">
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1243,8 +1278,9 @@
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:11">
+      <c r="L9"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:12">
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1254,8 +1290,9 @@
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:11">
+      <c r="L10"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:12">
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1265,8 +1302,9 @@
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:11">
+      <c r="L11"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:12">
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
@@ -1276,8 +1314,9 @@
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:11">
+      <c r="L12"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:12">
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1287,8 +1326,9 @@
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:11">
+      <c r="L13"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:12">
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
@@ -1298,8 +1338,9 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:11">
+      <c r="L14"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:12">
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -1309,8 +1350,9 @@
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:11">
+      <c r="L15"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:12">
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -1320,8 +1362,9 @@
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:11">
+      <c r="L16"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:12">
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1331,8 +1374,9 @@
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:11">
+      <c r="L17"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:12">
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -1340,10 +1384,11 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" s="4"/>
-      <c r="K18"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:11">
+      <c r="J18"/>
+      <c r="K18" s="4"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:12">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1353,8 +1398,9 @@
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:11">
+      <c r="L19"/>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:12">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1364,8 +1410,9 @@
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:11">
+      <c r="L20"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:12">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -1375,8 +1422,9 @@
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:11">
+      <c r="L21"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:12">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -1386,8 +1434,9 @@
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:11">
+      <c r="L22"/>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:12">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -1397,8 +1446,9 @@
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:11">
+      <c r="L23"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:12">
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -1408,8 +1458,9 @@
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:11">
+      <c r="L24"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:12">
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -1419,8 +1470,9 @@
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:11">
+      <c r="L25"/>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:12">
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -1430,8 +1482,9 @@
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:11">
+      <c r="L26"/>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:12">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -1441,8 +1494,9 @@
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:11">
+      <c r="L27"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:12">
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
@@ -1452,8 +1506,9 @@
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:11">
+      <c r="L28"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:12">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1463,8 +1518,9 @@
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:11">
+      <c r="L29"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:12">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1474,8 +1530,9 @@
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:10">
+      <c r="L30"/>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:11">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1484,8 +1541,9 @@
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:11">
+      <c r="K31"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:12">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1494,9 +1552,10 @@
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:10">
+      <c r="K32"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:11">
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -1505,8 +1564,9 @@
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:11">
+      <c r="K33"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:12">
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -1516,8 +1576,9 @@
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:11">
+      <c r="L34"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:12">
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -1527,8 +1588,9 @@
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:11">
+      <c r="L35"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:12">
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -1538,8 +1600,9 @@
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:11">
+      <c r="L36"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:12">
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -1549,8 +1612,9 @@
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:11">
+      <c r="L37"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:12">
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -1560,8 +1624,9 @@
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:11">
+      <c r="L38"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:12">
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -1571,8 +1636,9 @@
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:11">
+      <c r="L39"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:12">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -1582,8 +1648,9 @@
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:11">
+      <c r="L40"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="3:12">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -1593,8 +1660,9 @@
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:11">
+      <c r="L41"/>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="3:12">
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
@@ -1604,8 +1672,9 @@
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="3:11">
+      <c r="L42"/>
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="3:12">
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
@@ -1615,8 +1684,9 @@
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="3:11">
+      <c r="L43"/>
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="3:12">
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
@@ -1626,8 +1696,9 @@
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="3:11">
+      <c r="L44"/>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="3:12">
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -1637,8 +1708,9 @@
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
-    </row>
-    <row r="46" ht="24" customHeight="1" spans="3:11">
+      <c r="L45"/>
+    </row>
+    <row r="46" ht="24" customHeight="1" spans="3:12">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -1648,8 +1720,9 @@
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
-    </row>
-    <row r="47" ht="24" customHeight="1" spans="3:11">
+      <c r="L46"/>
+    </row>
+    <row r="47" ht="24" customHeight="1" spans="3:12">
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -1659,8 +1732,9 @@
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
-    </row>
-    <row r="48" ht="24" customHeight="1" spans="3:11">
+      <c r="L47"/>
+    </row>
+    <row r="48" ht="24" customHeight="1" spans="3:12">
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -1670,8 +1744,9 @@
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
-    </row>
-    <row r="49" ht="24" customHeight="1" spans="3:11">
+      <c r="L48"/>
+    </row>
+    <row r="49" ht="24" customHeight="1" spans="3:12">
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
@@ -1681,8 +1756,9 @@
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
-    </row>
-    <row r="50" ht="24" customHeight="1" spans="3:11">
+      <c r="L49"/>
+    </row>
+    <row r="50" ht="24" customHeight="1" spans="3:12">
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
@@ -1692,8 +1768,9 @@
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
-    </row>
-    <row r="51" ht="24" customHeight="1" spans="3:11">
+      <c r="L50"/>
+    </row>
+    <row r="51" ht="24" customHeight="1" spans="3:12">
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
@@ -1703,8 +1780,9 @@
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
-    </row>
-    <row r="52" ht="24" customHeight="1" spans="3:11">
+      <c r="L51"/>
+    </row>
+    <row r="52" ht="24" customHeight="1" spans="3:12">
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -1714,8 +1792,9 @@
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
-    </row>
-    <row r="53" ht="24" customHeight="1" spans="3:11">
+      <c r="L52"/>
+    </row>
+    <row r="53" ht="24" customHeight="1" spans="3:12">
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -1725,10 +1804,11 @@
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
+      <c r="L53"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 H3 I3 J3 K3 E4 F4 H4 I4 J4 K4 E5 F5 G5 H5 I5 J5 K5 C3:C5 D4:D5 G3:G4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 H3 I3 J3 K3 L3 E4 F4 H4 I4 J4 K4 L4 E5 F5 G5 H5 I5 J5 K5 L5 C3:C5 D4:D5 G3:G4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -1802,13 +1882,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1820,19 +1900,19 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1844,19 +1924,19 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
